--- a/final/RESULT/Airtable_Base_Data.xlsx
+++ b/final/RESULT/Airtable_Base_Data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="78">
   <si>
     <t>User ID</t>
   </si>
@@ -391,7 +391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -734,6 +734,166 @@
         <v>6</v>
       </c>
       <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>6</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>6</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>6</v>
+      </c>
+      <c r="B58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>6</v>
+      </c>
+      <c r="B59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
         <v>3</v>
       </c>
     </row>
